--- a/data/registerandlogin.xlsx
+++ b/data/registerandlogin.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="16">
   <si>
     <t>url</t>
   </si>
@@ -58,7 +58,10 @@
     <t>autotest521</t>
   </si>
   <si>
-    <t>autotest522</t>
+    <t>autotest523</t>
+  </si>
+  <si>
+    <t>autotest524</t>
   </si>
 </sst>
 </file>
@@ -67,9 +70,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -96,44 +99,113 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -147,78 +219,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -233,19 +236,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -257,163 +344,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -424,17 +427,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -449,39 +441,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -504,8 +463,52 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -532,10 +535,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -544,16 +547,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -565,112 +568,112 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1006,13 +1009,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelRow="6" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelRow="7" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="26.3636363636364" customWidth="1"/>
     <col min="2" max="3" width="18.5454545454545" customWidth="1"/>
@@ -1136,6 +1139,23 @@
         <v>8</v>
       </c>
     </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" t="s">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" display="http://hn216.api.yesapi.cn/" tooltip="http://hn216.api.yesapi.cn/"/>
@@ -1144,6 +1164,7 @@
     <hyperlink ref="A5" r:id="rId1" display="http://hn216.api.yesapi.cn/" tooltip="http://hn216.api.yesapi.cn/"/>
     <hyperlink ref="A6" r:id="rId1" display="http://hn216.api.yesapi.cn/" tooltip="http://hn216.api.yesapi.cn/"/>
     <hyperlink ref="A7" r:id="rId1" display="http://hn216.api.yesapi.cn/" tooltip="http://hn216.api.yesapi.cn/"/>
+    <hyperlink ref="A8" r:id="rId1" display="http://hn216.api.yesapi.cn/" tooltip="http://hn216.api.yesapi.cn/"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/data/registerandlogin.xlsx
+++ b/data/registerandlogin.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="17">
   <si>
     <t>url</t>
   </si>
@@ -62,6 +62,9 @@
   </si>
   <si>
     <t>autotest524</t>
+  </si>
+  <si>
+    <t>autotest525</t>
   </si>
 </sst>
 </file>
@@ -69,10 +72,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -100,6 +103,28 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -107,7 +132,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -118,50 +143,6 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -173,23 +154,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -203,25 +177,54 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -236,187 +239,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -441,39 +444,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -502,17 +472,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -527,6 +486,50 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -535,10 +538,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -547,16 +550,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -568,112 +571,112 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1009,13 +1012,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelRow="7" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="26.3636363636364" customWidth="1"/>
     <col min="2" max="3" width="18.5454545454545" customWidth="1"/>
@@ -1156,6 +1159,23 @@
         <v>8</v>
       </c>
     </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" t="s">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" display="http://hn216.api.yesapi.cn/" tooltip="http://hn216.api.yesapi.cn/"/>
@@ -1165,6 +1185,7 @@
     <hyperlink ref="A6" r:id="rId1" display="http://hn216.api.yesapi.cn/" tooltip="http://hn216.api.yesapi.cn/"/>
     <hyperlink ref="A7" r:id="rId1" display="http://hn216.api.yesapi.cn/" tooltip="http://hn216.api.yesapi.cn/"/>
     <hyperlink ref="A8" r:id="rId1" display="http://hn216.api.yesapi.cn/" tooltip="http://hn216.api.yesapi.cn/"/>
+    <hyperlink ref="A9" r:id="rId1" display="http://hn216.api.yesapi.cn/" tooltip="http://hn216.api.yesapi.cn/"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/data/registerandlogin.xlsx
+++ b/data/registerandlogin.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18600" windowHeight="6800"/>
+    <workbookView windowWidth="19200" windowHeight="7070"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -72,10 +72,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -103,7 +103,37 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -118,13 +148,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -138,11 +161,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -155,21 +184,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -177,6 +191,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -185,46 +222,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -239,43 +239,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -287,139 +413,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -430,6 +430,39 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -444,30 +477,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -497,25 +506,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -538,10 +538,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -550,16 +550,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -571,112 +571,112 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1023,7 +1023,7 @@
     <col min="1" max="1" width="26.3636363636364" customWidth="1"/>
     <col min="2" max="3" width="18.5454545454545" customWidth="1"/>
     <col min="4" max="4" width="23.0909090909091" customWidth="1"/>
-    <col min="5" max="5" width="23.3636363636364" customWidth="1"/>
+    <col min="5" max="5" width="37.9090909090909" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">

--- a/data/registerandlogin.xlsx
+++ b/data/registerandlogin.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="18">
   <si>
     <t>url</t>
   </si>
@@ -65,6 +65,9 @@
   </si>
   <si>
     <t>autotest525</t>
+  </si>
+  <si>
+    <t>autotest526</t>
   </si>
 </sst>
 </file>
@@ -72,10 +75,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -102,6 +105,60 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -110,14 +167,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -125,15 +190,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -147,15 +211,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -169,62 +227,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -239,49 +242,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -293,61 +386,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -359,61 +416,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -452,7 +455,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -460,8 +463,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -496,15 +499,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -530,6 +524,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -538,10 +541,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -550,133 +553,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1012,10 +1015,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelCol="4"/>
@@ -1176,6 +1179,23 @@
         <v>8</v>
       </c>
     </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" t="s">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" display="http://hn216.api.yesapi.cn/" tooltip="http://hn216.api.yesapi.cn/"/>
@@ -1186,6 +1206,7 @@
     <hyperlink ref="A7" r:id="rId1" display="http://hn216.api.yesapi.cn/" tooltip="http://hn216.api.yesapi.cn/"/>
     <hyperlink ref="A8" r:id="rId1" display="http://hn216.api.yesapi.cn/" tooltip="http://hn216.api.yesapi.cn/"/>
     <hyperlink ref="A9" r:id="rId1" display="http://hn216.api.yesapi.cn/" tooltip="http://hn216.api.yesapi.cn/"/>
+    <hyperlink ref="A10" r:id="rId1" display="http://hn216.api.yesapi.cn/" tooltip="http://hn216.api.yesapi.cn/"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
